--- a/Data/Excel/TestIngredients.xlsx
+++ b/Data/Excel/TestIngredients.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>main</t>
   </si>
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>EnumGrade</t>
+  </si>
+  <si>
     <t>Recipe1</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>Ingredient1</t>
   </si>
   <si>
+    <t>Good</t>
+  </si>
+  <si>
     <t>Recipe2</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
   </si>
   <si>
     <t>Ingredient2</t>
+  </si>
+  <si>
+    <t>Great</t>
   </si>
 </sst>
 </file>
@@ -329,56 +341,68 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
